--- a/gu_in/Map.edf/neutralBS1.xlsx
+++ b/gu_in/Map.edf/neutralBS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AB011-F68F-4173-AF01-BFD4FE58BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AD339-A72B-4003-86D6-FC3174AE0A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67977,7 +67977,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68045,7 +68045,7 @@
         <v>-4960</v>
       </c>
       <c r="D3" s="1">
-        <v>758</v>
+        <v>200758</v>
       </c>
       <c r="E3" s="1">
         <v>-3775</v>
@@ -68175,7 +68175,7 @@
         <v>-4889</v>
       </c>
       <c r="D8" s="1">
-        <v>758</v>
+        <v>200758</v>
       </c>
       <c r="E8" s="1">
         <v>-3756</v>

--- a/gu_in/Map.edf/neutralBS1.xlsx
+++ b/gu_in/Map.edf/neutralBS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AD339-A72B-4003-86D6-FC3174AE0A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A066E08-84B2-4239-AA64-478BBFB39843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -67977,10 +67977,13 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -68045,7 +68048,7 @@
         <v>-4960</v>
       </c>
       <c r="D3" s="1">
-        <v>200758</v>
+        <v>958</v>
       </c>
       <c r="E3" s="1">
         <v>-3775</v>
@@ -68097,7 +68100,7 @@
         <v>-4251</v>
       </c>
       <c r="D5" s="1">
-        <v>200761</v>
+        <v>961</v>
       </c>
       <c r="E5" s="1">
         <v>-2892</v>
@@ -68175,7 +68178,7 @@
         <v>-4889</v>
       </c>
       <c r="D8" s="1">
-        <v>200758</v>
+        <v>958</v>
       </c>
       <c r="E8" s="1">
         <v>-3756</v>
@@ -68201,7 +68204,7 @@
         <v>-4210</v>
       </c>
       <c r="D9" s="1">
-        <v>200758</v>
+        <v>958</v>
       </c>
       <c r="E9" s="1">
         <v>-2911</v>
